--- a/backend/resources/templates/reporte_programado.xlsx
+++ b/backend/resources/templates/reporte_programado.xlsx
@@ -298,26 +298,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +356,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E84EB8-DC54-4CDB-B5F3-0487DD1E8A22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E84EB8-DC54-4CDB-B5F3-0487DD1E8A22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="11">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -964,70 +964,70 @@
       <c r="AB11" s="13"/>
     </row>
     <row r="12" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
     </row>
     <row r="13" spans="2:28" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="15" t="s">
@@ -1066,207 +1066,207 @@
       <c r="AA13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="17" t="s">
+      <c r="AB13" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="22" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="U14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="V14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="W14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="22" t="s">
+      <c r="Z14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="22" t="s">
+      <c r="AA14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AB14" s="19"/>
+      <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
